--- a/DFPS-API/Resources/Template/GetReportDataPass.xlsx
+++ b/DFPS-API/Resources/Template/GetReportDataPass.xlsx
@@ -191,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +217,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +536,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -543,7 +552,9 @@
     <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="11"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -583,7 +594,7 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -624,7 +635,7 @@
       <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
